--- a/data/beds-vents-1115.xlsx
+++ b/data/beds-vents-1115.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="643">
   <si>
     <t>DATE</t>
   </si>
@@ -1934,6 +1934,15 @@
   </si>
   <si>
     <t>2021-11-11</t>
+  </si>
+  <si>
+    <t>2021-11-12</t>
+  </si>
+  <si>
+    <t>2021-11-13</t>
+  </si>
+  <si>
+    <t>2021-11-14</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O626"/>
+  <dimension ref="A1:O629"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -30891,6 +30900,147 @@
         <v>74.16</v>
       </c>
     </row>
+    <row r="627" spans="1:15">
+      <c r="A627" t="s">
+        <v>640</v>
+      </c>
+      <c r="B627">
+        <v>2268</v>
+      </c>
+      <c r="C627">
+        <v>336</v>
+      </c>
+      <c r="D627">
+        <v>1268</v>
+      </c>
+      <c r="E627">
+        <v>664</v>
+      </c>
+      <c r="F627">
+        <v>2774</v>
+      </c>
+      <c r="G627">
+        <v>157</v>
+      </c>
+      <c r="H627">
+        <v>556</v>
+      </c>
+      <c r="I627">
+        <v>2061</v>
+      </c>
+      <c r="J627">
+        <v>14.81</v>
+      </c>
+      <c r="K627">
+        <v>55.91</v>
+      </c>
+      <c r="L627">
+        <v>29.28</v>
+      </c>
+      <c r="M627">
+        <v>5.66</v>
+      </c>
+      <c r="N627">
+        <v>20.04</v>
+      </c>
+      <c r="O627">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:15">
+      <c r="A628" t="s">
+        <v>641</v>
+      </c>
+      <c r="B628">
+        <v>2278</v>
+      </c>
+      <c r="C628">
+        <v>350</v>
+      </c>
+      <c r="D628">
+        <v>1338</v>
+      </c>
+      <c r="E628">
+        <v>590</v>
+      </c>
+      <c r="F628">
+        <v>2771</v>
+      </c>
+      <c r="G628">
+        <v>150</v>
+      </c>
+      <c r="H628">
+        <v>549</v>
+      </c>
+      <c r="I628">
+        <v>2072</v>
+      </c>
+      <c r="J628">
+        <v>15.36</v>
+      </c>
+      <c r="K628">
+        <v>58.74</v>
+      </c>
+      <c r="L628">
+        <v>25.9</v>
+      </c>
+      <c r="M628">
+        <v>5.41</v>
+      </c>
+      <c r="N628">
+        <v>19.81</v>
+      </c>
+      <c r="O628">
+        <v>74.77</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15">
+      <c r="A629" t="s">
+        <v>642</v>
+      </c>
+      <c r="B629">
+        <v>2264</v>
+      </c>
+      <c r="C629">
+        <v>351</v>
+      </c>
+      <c r="D629">
+        <v>1252</v>
+      </c>
+      <c r="E629">
+        <v>661</v>
+      </c>
+      <c r="F629">
+        <v>2772</v>
+      </c>
+      <c r="G629">
+        <v>147</v>
+      </c>
+      <c r="H629">
+        <v>540</v>
+      </c>
+      <c r="I629">
+        <v>2085</v>
+      </c>
+      <c r="J629">
+        <v>15.5</v>
+      </c>
+      <c r="K629">
+        <v>55.3</v>
+      </c>
+      <c r="L629">
+        <v>29.2</v>
+      </c>
+      <c r="M629">
+        <v>5.3</v>
+      </c>
+      <c r="N629">
+        <v>19.48</v>
+      </c>
+      <c r="O629">
+        <v>75.22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
